--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>385</v>
+        <v>748</v>
       </c>
       <c r="C2" t="n">
-        <v>7978607</v>
+        <v>10416214</v>
       </c>
       <c r="D2" t="n">
-        <v>-2021393</v>
+        <v>416214</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7978607</v>
+        <v>1.0416214</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1805555</v>
+        <v>1.1812948</v>
       </c>
     </row>
     <row r="3">
@@ -493,16 +493,16 @@
         <v>748</v>
       </c>
       <c r="C3" t="n">
-        <v>10010618</v>
+        <v>15546496</v>
       </c>
       <c r="D3" t="n">
-        <v>10618</v>
+        <v>5546496</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0010618</v>
+        <v>1.5546496</v>
       </c>
       <c r="F3" t="n">
-        <v>1.312853</v>
+        <v>1.6585821</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>372</v>
+        <v>748</v>
       </c>
       <c r="C4" t="n">
-        <v>7907245</v>
+        <v>11506393</v>
       </c>
       <c r="D4" t="n">
-        <v>-2092755</v>
+        <v>1506393</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7907245000000001</v>
+        <v>1.1506393</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0579112</v>
+        <v>1.3468108</v>
       </c>
     </row>
     <row r="5">
@@ -530,39 +530,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C5" t="n">
-        <v>7916410</v>
+        <v>7865705</v>
       </c>
       <c r="D5" t="n">
-        <v>-2083590</v>
+        <v>-2134295</v>
       </c>
       <c r="E5" t="n">
-        <v>0.791641</v>
+        <v>0.7865705</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0974969</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>456</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7950738</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-2049262</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7950738000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.0925763</v>
+        <v>1.0487042</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1407"/>
+  <dimension ref="A1:F1411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28585,6 +28585,86 @@
         <v>17.1316366</v>
       </c>
     </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>1407</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>748</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>154853992</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>144853992</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>15.4853992</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>16.0449919</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>1408</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>748</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>200724622</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>190724622</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>20.0724622</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>20.7978296</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>1409</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>748</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>75757198</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>65757198</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>7.5757198</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>7.8494704</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>748</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>147851255</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>137851255</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>14.7851255</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>15.3194427</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
